--- a/src/main/resources/考生信息Excel模板.xlsx
+++ b/src/main/resources/考生信息Excel模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Java\Spring\exam-order\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85644AA6-ADA3-46B0-B760-C2C8EEFFCED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935AD1B-256E-4DCB-A691-1245F3D74B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>姓名</t>
   </si>
@@ -61,14 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计算机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>330401202201023456</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,6 +70,19 @@
   </si>
   <si>
     <t>xxx学校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填，否则留空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他注意事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 该模板列的顺序可变动，以列名作为读取匹配条件。请不要改动列名即可。
+2. 也可以自行将已有的Excel文件修改表头，进行导入。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -97,6 +102,7 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -120,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,13 +149,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +173,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,23 +494,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +539,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -529,25 +554,76 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:K17"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/考生信息Excel模板.xlsx
+++ b/src/main/resources/考生信息Excel模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Java\Spring\exam-order\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935AD1B-256E-4DCB-A691-1245F3D74B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13195CF6-60E1-41AB-A171-31064179B07D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>姓名</t>
   </si>
@@ -31,9 +31,6 @@
     <t>类别代码</t>
   </si>
   <si>
-    <t>类别名称</t>
-  </si>
-  <si>
     <t>试场号</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>考点代码</t>
-  </si>
-  <si>
-    <t>考点名称</t>
   </si>
   <si>
     <t>张三</t>
@@ -65,24 +59,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01020304</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx学校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选填，否则留空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他注意事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>#选填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 该模板列的顺序可变动，以列名作为读取匹配条件。请不要改动列名即可。
-2. 也可以自行将已有的Excel文件修改表头，进行导入。</t>
+2. 也可以自行将已有的Excel文件修改表头，进行导入。
+3. 类别代码列：技能操作的类别为010-170的三位数。类别代码必须和《试场场次信息模板》中的相对应！
+4. 考点代码列：选填。需要和《试场场次信息模板》中的对应，或者都留空。当考生分配两个考点时，必填。
+5. 试场号列：选填。若填写，那么将和《试场场次信息模板》中对应进行分组，此时请不要使用随机生成。
+6. 座位号列：选填。若填写，则在生成时将使用填写的座位号，此时请不要使用随机生成。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I2" sqref="I2:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,13 +495,13 @@
     <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="4" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,96 +523,105 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K17" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K2:K17"/>
+    <mergeCell ref="I2:I24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/考生信息Excel模板.xlsx
+++ b/src/main/resources/考生信息Excel模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Java\Spring\exam-order\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13195CF6-60E1-41AB-A171-31064179B07D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53515970-256C-4B57-93CD-B2433A74E894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,11 +67,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 该模板列的顺序可变动，以列名作为读取匹配条件。请不要改动列名即可。
+    <t>1. 该模板列的顺序可变动，以列名作为读取匹配条件。请不要改动列名文字即可。
 2. 也可以自行将已有的Excel文件修改表头，进行导入。
 3. 类别代码列：技能操作的类别为010-170的三位数。类别代码必须和《试场场次信息模板》中的相对应！
-4. 考点代码列：选填。需要和《试场场次信息模板》中的对应，或者都留空。当考生分配两个考点时，必填。
-5. 试场号列：选填。若填写，那么将和《试场场次信息模板》中对应进行分组，此时请不要使用随机生成。
+4. 考点代码列：选填。需要和《试场场次信息模板》中的对应，或者都留空。当列表内考生分配两个考点时，必填。
+5. 试场号列：选填。若填写，那么将需要和《试场场次信息模板》中对应，分组至对应试场。
 6. 座位号列：选填。若填写，则在生成时将使用填写的座位号，此时请不要使用随机生成。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -486,9 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/src/main/resources/考生信息Excel模板.xlsx
+++ b/src/main/resources/考生信息Excel模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Java\Spring\exam-order\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53515970-256C-4B57-93CD-B2433A74E894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6940F8B-FA22-45B2-9DC9-517A1BD807D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
   <si>
     <t>1. 该模板列的顺序可变动，以列名作为读取匹配条件。请不要改动列名文字即可。
 2. 也可以自行将已有的Excel文件修改表头，进行导入。
-3. 类别代码列：技能操作的类别为010-170的三位数。类别代码必须和《试场场次信息模板》中的相对应！
+3. 类别代码列：自定义的类别代码（如020、16A），必须和《试场场次信息模板》中的相对应！
 4. 考点代码列：选填。需要和《试场场次信息模板》中的对应，或者都留空。当列表内考生分配两个考点时，必填。
 5. 试场号列：选填。若填写，那么将需要和《试场场次信息模板》中对应，分组至对应试场。
 6. 座位号列：选填。若填写，则在生成时将使用填写的座位号，此时请不要使用随机生成。</t>
@@ -486,20 +486,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="6.76171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.87890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.46875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.87890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -551,70 +553,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I24" s="4"/>
     </row>
   </sheetData>

--- a/src/main/resources/考生信息Excel模板.xlsx
+++ b/src/main/resources/考生信息Excel模板.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Java\Spring\exam-order\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6940F8B-FA22-45B2-9DC9-517A1BD807D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17025" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>姓名</t>
   </si>
@@ -43,28 +50,25 @@
     <t>考点代码</t>
   </si>
   <si>
+    <t>其他注意事项</t>
+  </si>
+  <si>
     <t>张三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20220102030405</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#选填，默认自动编号</t>
   </si>
   <si>
     <t>330401202201023456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他注意事项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#选填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#选填，默认为一个考点</t>
   </si>
   <si>
     <t>1. 该模板列的顺序可变动，以列名作为读取匹配条件。请不要改动列名文字即可。
@@ -73,37 +77,192 @@
 4. 考点代码列：选填。需要和《试场场次信息模板》中的对应，或者都留空。当列表内考生分配两个考点时，必填。
 5. 试场号列：选填。若填写，那么将需要和《试场场次信息模板》中对应，分组至对应试场。
 6. 座位号列：选填。若填写，则在生成时将使用填写的座位号，此时请不要使用随机生成。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,10 +272,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -148,20 +494,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -171,17 +762,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -230,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,26 +898,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -315,23 +933,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,158 +1074,153 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.46875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.87890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.64453125" customWidth="1"/>
+    <col min="1" max="1" width="6.75833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.4666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.75" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I24" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="9:9">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="9:9">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="9:9">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="9:9">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="9:9">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="9:9">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="9:9">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="9:9">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="9:9">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="9:9">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="9:9">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="9:9">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="9:9">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I2:I24"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>